--- a/Reports/Receipt.xlsx
+++ b/Reports/Receipt.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="OrderItems">Sheet1!$A$10:$C$10</definedName>
+    <definedName name="OrderItems">Sheet1!$A$10:$C$11</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -628,8 +628,8 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
     <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="74" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
